--- a/ProjectTestFolder/requirements/00_User_Requirements.xlsx
+++ b/ProjectTestFolder/requirements/00_User_Requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rares\Desktop\25.7\ProjectTestFolder\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NTT\New folder\ProjectTestFolder\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E0BD15-92AB-4DCE-93F2-E3FCECCA23DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEA5F81-C071-4E40-AB09-1B254527002F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{E470CE78-3650-419F-8067-6123C15DAE16}"/>
+    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{E2886DBF-176B-419B-BBD2-8B2AE689173D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
     <t>R.A.D.U. - Requirements And Design Utility</t>
   </si>
   <si>
-    <t>Thursday, 25 July 2019</t>
+    <t>Friday, 26 July 2019</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6AA859-8C32-4968-B847-0E7903651B00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2D358B-98AD-4B3C-AA73-82889051AD6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705CB5BB-EC0A-4D6D-AEB7-DA5902BDCD66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D610ECB-150C-44DE-9489-953DD144C6F3}">
   <dimension ref="A2:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/ProjectTestFolder/requirements/00_User_Requirements.xlsx
+++ b/ProjectTestFolder/requirements/00_User_Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NTT\New folder\ProjectTestFolder\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NTT\05.07\ProjectTestFolder\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AEA5F81-C071-4E40-AB09-1B254527002F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4E847C-B73E-41A1-98DB-AB4E300A4123}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{E2886DBF-176B-419B-BBD2-8B2AE689173D}"/>
+    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{2520039A-B207-4D72-B760-B693715B05CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -85,7 +85,7 @@
   <si>
     <t xml:space="preserve">
 [SWS_Dcm_01144] Protocol preemption can’t be activated with a concurrent TesterPresent of a higher priority protocol.
-      </t>
+       0.jpg</t>
   </si>
   <si>
     <t>Ready for review</t>
@@ -139,7 +139,7 @@
 Dcm module shall assume that the ongoing transmission cannot be cancelled and shall
 not retry to cancel the transmit request. The current protocol shall be stopped and the
 new one started.
-      </t>
+       NTT.png</t>
   </si>
   <si>
     <t>In work</t>
@@ -155,7 +155,7 @@
 [SWS_Dcm_01046] d If a running diagnostic request is preempted by a higher priority
 request (of another protocol), the Dcm shall cancel all external pending operations with
 Dcm_OpStatus set to DCM_CANCEL c()
-      </t>
+       TRY2_Final_StickyNote-03.png</t>
   </si>
   <si>
     <t>Approved</t>
@@ -355,6 +355,9 @@
       </t>
   </si>
   <si>
+    <t>Accepted by project</t>
+  </si>
+  <si>
     <t>NTT.RADU.SW.Req228</t>
   </si>
   <si>
@@ -527,7 +530,7 @@
     <t>R.A.D.U. - Requirements And Design Utility</t>
   </si>
   <si>
-    <t>Friday, 26 July 2019</t>
+    <t>Tuesday, 06 August 2019</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2D358B-98AD-4B3C-AA73-82889051AD6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A717F7-EF83-4FCE-83E1-32501842737C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -955,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D610ECB-150C-44DE-9489-953DD144C6F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB476C51-04D1-4289-9B5D-C67A35304D18}">
   <dimension ref="A2:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -967,12 +970,12 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1059,8 +1062,8 @@
       <c r="K6" t="s">
         <v>23</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
+      <c r="L6">
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>24</v>
@@ -1109,8 +1112,8 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="L7" t="s">
-        <v>21</v>
+      <c r="L7">
+        <v>1</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -1159,8 +1162,8 @@
       <c r="K8" t="s">
         <v>23</v>
       </c>
-      <c r="L8" t="s">
-        <v>21</v>
+      <c r="L8">
+        <v>2</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -1172,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -1209,8 +1212,8 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
-        <v>21</v>
+      <c r="L9">
+        <v>3</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
@@ -1222,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="120" x14ac:dyDescent="0.25">
@@ -1609,8 +1612,8 @@
       <c r="K17" t="s">
         <v>23</v>
       </c>
-      <c r="L17" t="s">
-        <v>21</v>
+      <c r="L17">
+        <v>3</v>
       </c>
       <c r="M17" t="s">
         <v>24</v>
@@ -1622,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="150" x14ac:dyDescent="0.25">
@@ -1659,8 +1662,8 @@
       <c r="K18" t="s">
         <v>23</v>
       </c>
-      <c r="L18" t="s">
-        <v>21</v>
+      <c r="L18">
+        <v>3</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -1672,7 +1675,7 @@
         <v>21</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="150" x14ac:dyDescent="0.25">
@@ -2159,8 +2162,8 @@
       <c r="K28" t="s">
         <v>23</v>
       </c>
-      <c r="L28" t="s">
-        <v>21</v>
+      <c r="L28">
+        <v>2</v>
       </c>
       <c r="M28" t="s">
         <v>24</v>
@@ -2172,7 +2175,7 @@
         <v>21</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="135" x14ac:dyDescent="0.25">
@@ -2209,8 +2212,8 @@
       <c r="K29" t="s">
         <v>23</v>
       </c>
-      <c r="L29" t="s">
-        <v>21</v>
+      <c r="L29">
+        <v>1</v>
       </c>
       <c r="M29" t="s">
         <v>24</v>
@@ -2222,7 +2225,7 @@
         <v>21</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
@@ -2383,7 +2386,7 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2422,19 +2425,19 @@
         <v>21</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
@@ -2472,18 +2475,18 @@
         <v>21</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -2522,18 +2525,18 @@
         <v>21</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
@@ -2572,15 +2575,15 @@
         <v>21</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -2609,8 +2612,8 @@
       <c r="K37" t="s">
         <v>23</v>
       </c>
-      <c r="L37" t="s">
-        <v>21</v>
+      <c r="L37">
+        <v>1</v>
       </c>
       <c r="M37" t="s">
         <v>24</v>
@@ -2622,15 +2625,15 @@
         <v>21</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="300" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -2659,8 +2662,8 @@
       <c r="K38" t="s">
         <v>23</v>
       </c>
-      <c r="L38" t="s">
-        <v>21</v>
+      <c r="L38">
+        <v>3</v>
       </c>
       <c r="M38" t="s">
         <v>24</v>
@@ -2672,15 +2675,15 @@
         <v>21</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -2727,10 +2730,10 @@
     </row>
     <row r="40" spans="1:16" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
         <v>37</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="41" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -2827,10 +2830,10 @@
     </row>
     <row r="42" spans="1:16" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -2877,10 +2880,10 @@
     </row>
     <row r="43" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -2927,10 +2930,10 @@
     </row>
     <row r="44" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -2977,10 +2980,10 @@
     </row>
     <row r="45" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -3027,10 +3030,10 @@
     </row>
     <row r="46" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -3077,10 +3080,10 @@
     </row>
     <row r="47" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -3127,10 +3130,10 @@
     </row>
     <row r="48" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -3177,10 +3180,10 @@
     </row>
     <row r="49" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
